--- a/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D49DC5C-1BF5-4BBF-A46F-CF752B6577DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F98D1DC-7B2A-4208-84EA-9657A02028BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3ED0178A-C863-4A89-BC43-CA858C2A78B4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{14A49C5A-6F89-4201-9C34-BB6AFFABA4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -79,42 +79,42 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -130,6 +130,12 @@
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -152,12 +158,6 @@
   </si>
   <si>
     <t>38,5%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
   </si>
   <si>
     <t>27,08%</t>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26508450-8835-4E43-BB63-BFF188F00B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F54E5B4-EE33-42C7-B243-D86AB5004B0F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -848,17 +848,15 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -873,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -882,49 +880,47 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1788</v>
+        <v>1426</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1426</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3831</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -933,54 +929,52 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1788</v>
+        <v>1426</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>3831</v>
+        <v>1426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -998,20 +992,22 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1026,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,47 +1031,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1426</v>
+        <v>1788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2043</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>1426</v>
+        <v>3831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1084,47 +1082,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1426</v>
+        <v>1788</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2043</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>1426</v>
+        <v>3831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>3213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1207,13 +1207,13 @@
         <v>2043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -1222,13 +1222,13 @@
         <v>5256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,13 +1243,13 @@
         <v>3213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1258,13 +1258,13 @@
         <v>2043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -1273,13 +1273,13 @@
         <v>5256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4608DA-8F71-4BAD-A1F5-0307FC1E6476}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E994690A-F569-446B-934B-01819CADE417}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1555,47 +1555,45 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>798</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>798</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,49 +1602,47 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1494</v>
+        <v>656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>4161</v>
+        <v>656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,54 +1651,52 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>2292</v>
+        <v>656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>4959</v>
+        <v>656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1710,45 +1704,47 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,47 +1753,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2667</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>656</v>
+        <v>1494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>656</v>
+        <v>4161</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,47 +1804,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2667</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>656</v>
+        <v>2292</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>656</v>
+        <v>4959</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1914,13 +1914,13 @@
         <v>2667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1950,7 +1950,7 @@
         <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1965,13 @@
         <v>2667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -1980,13 +1980,13 @@
         <v>2947</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -1995,13 +1995,13 @@
         <v>5614</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5C8337-D6EA-4066-A2FB-3F7477716D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38426C68-222D-4A4E-BB8B-9813D1F2C4AD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2150,7 +2150,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2193,13 @@
         <v>646</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2221,13 +2221,13 @@
         <v>646</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2242,13 @@
         <v>646</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2270,13 +2270,13 @@
         <v>646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,47 +2289,41 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,49 +2332,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,54 +2377,48 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2444,41 +2426,47 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,43 +2475,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1214</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1141</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2355</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,43 +2526,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1214</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1141</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2355</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2591,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>1859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2651,13 +2651,13 @@
         <v>1141</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2666,13 +2666,13 @@
         <v>3000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2687,13 @@
         <v>1859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2702,13 +2702,13 @@
         <v>1141</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -2717,13 +2717,13 @@
         <v>3000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F98D1DC-7B2A-4208-84EA-9657A02028BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E860BA9B-2A95-4E31-A24A-8F9AA6CCC7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{14A49C5A-6F89-4201-9C34-BB6AFFABA4D4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C96E3EEE-43F4-4C21-B913-226D49F6861A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="49">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -67,19 +67,28 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -88,31 +97,37 @@
     <t>0%</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -121,22 +136,19 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
   </si>
   <si>
     <t>34,83%</t>
@@ -145,19 +157,19 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>27,08%</t>
@@ -169,19 +181,7 @@
     <t>14,22%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>54,71%</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2015 (Tasa respuesta: 0,24%)</t>
@@ -195,7 +195,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,39 +291,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -375,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -486,13 +486,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -501,6 +494,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -565,19 +565,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F54E5B4-EE33-42C7-B243-D86AB5004B0F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F97BA1-70C3-4788-9114-9B27B9BA1D89}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -831,10 +851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -859,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -880,10 +900,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -908,10 +928,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -929,19 +949,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1426</v>
+        <v>700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -957,19 +977,19 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1426</v>
+        <v>700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -980,25 +1000,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
@@ -1007,22 +1027,22 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1031,49 +1051,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1788</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>3831</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,102 +1102,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>654</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>1788</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2043</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6</v>
-      </c>
       <c r="N12" s="7">
-        <v>3831</v>
+        <v>1932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1186,49 +1206,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3213</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>5256</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,55 +1257,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1235</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1389</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="7">
+        <v>4</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2624</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>3213</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>2043</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="7">
         <v>8</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>5256</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3213</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2043</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="7">
+        <v>8</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5256</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1298,8 +1479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E994690A-F569-446B-934B-01819CADE417}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0FCF7F-E0D6-4AE9-8E11-99CB5FFADA18}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1315,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1566,10 +1747,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -1578,13 +1759,13 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -1593,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,31 +1796,31 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -1670,13 +1851,13 @@
         <v>656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1685,13 +1866,13 @@
         <v>656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,47 +1885,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,49 +1928,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,102 +1973,96 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>798</v>
+        <v>1494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>798</v>
+        <v>4161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,49 +2071,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>2149</v>
+        <v>798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>798</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4816</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,49 +2128,210 @@
         <v>2667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2292</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="7">
+        <v>7</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4959</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="7">
+      <c r="D16" s="7">
+        <v>2667</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2149</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4816</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>798</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>798</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2667</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="I18" s="7">
         <v>2947</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="7">
         <v>8</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>5614</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2020,8 +2344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38426C68-222D-4A4E-BB8B-9813D1F2C4AD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935D9F54-4DF8-4BDB-AFF0-AC1075C1D5DA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2138,10 +2462,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -2150,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2166,10 +2490,10 @@
         <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>14</v>
@@ -2178,7 +2502,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2215,16 +2539,16 @@
         <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2242,13 +2566,13 @@
         <v>646</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2270,13 +2594,13 @@
         <v>646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,47 +2750,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,49 +2793,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,102 +2838,96 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2355</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,25 +2936,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1859</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -2657,22 +2963,22 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,19 +2987,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1859</v>
+        <v>1214</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2702,34 +3008,195 @@
         <v>1141</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
+        <v>4</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2355</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1859</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1141</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="7">
         <v>5</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>3000</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1859</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1141</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="7">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3000</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E860BA9B-2A95-4E31-A24A-8F9AA6CCC7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE35AD8E-6CC7-465B-B593-8179C760B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C96E3EEE-43F4-4C21-B913-226D49F6861A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6A0DAB9-94FB-4A6F-85E1-02D47B7CCEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="47">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -148,7 +148,7 @@
     <t>83,9%</t>
   </si>
   <si>
-    <t>38,23%</t>
+    <t>33,34%</t>
   </si>
   <si>
     <t>34,83%</t>
@@ -157,34 +157,28 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>61,77%</t>
+    <t>66,66%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>45,29%</t>
+    <t>34,5%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2015 (Tasa respuesta: 0,24%)</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2016 (Tasa respuesta: 0,24%)</t>
   </si>
 </sst>
 </file>
@@ -596,7 +590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F97BA1-70C3-4788-9114-9B27B9BA1D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA66FEE2-D2DF-44C2-9655-311D953B91F7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0FCF7F-E0D6-4AE9-8E11-99CB5FFADA18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB91E135-1042-4CA6-A9BD-1E529959E6B8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2199,7 +2193,7 @@
         <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -2211,10 +2205,10 @@
         <v>4816</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -2247,13 +2241,13 @@
         <v>798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2262,13 +2256,13 @@
         <v>798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935D9F54-4DF8-4BDB-AFF0-AC1075C1D5DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C8CF1-B7C9-40B9-A5A3-AEC4474A7DDB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">

--- a/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE35AD8E-6CC7-465B-B593-8179C760B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{274C8F37-41BF-41F8-973F-361AE189C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6A0DAB9-94FB-4A6F-85E1-02D47B7CCEBD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5F009154-F203-41CA-94AF-CC11E2573F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="49">
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2007 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -148,7 +148,7 @@
     <t>83,9%</t>
   </si>
   <si>
-    <t>33,34%</t>
+    <t>38,5%</t>
   </si>
   <si>
     <t>34,83%</t>
@@ -157,25 +157,31 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>66,66%</t>
+    <t>61,5%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
+    <t>21,5%</t>
+  </si>
+  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>34,5%</t>
+    <t>39,55%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
+    <t>78,5%</t>
+  </si>
+  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>65,5%</t>
+    <t>60,45%</t>
   </si>
   <si>
     <t>Menores según si ha consumido tranquilizantes, relajantes recetados por el médico en 2016 (Tasa respuesta: 0,24%)</t>
@@ -590,7 +596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA66FEE2-D2DF-44C2-9655-311D953B91F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1693AC60-53FB-4601-8DEF-2F0A6676AC52}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -845,32 +851,32 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>700</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -896,30 +902,30 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -943,32 +949,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>700</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -994,31 +1000,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1278</v>
+        <v>654</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>654</v>
+        <v>1278</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -1057,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1072,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1096,25 +1102,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>654</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>1278</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>654</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
@@ -1152,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1235</v>
+        <v>1389</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -1167,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1389</v>
+        <v>1235</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -1254,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1235</v>
+        <v>1389</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -1269,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1389</v>
+        <v>1235</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
@@ -1304,31 +1310,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3213</v>
+        <v>2043</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2043</v>
+        <v>3213</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1367,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1382,7 +1388,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1406,25 +1412,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2043</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3213</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2043</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
@@ -1473,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB91E135-1042-4CA6-A9BD-1E529959E6B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635FA3E-57D6-4DF5-82DA-476EA49FE8AB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1728,32 +1734,32 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>656</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -1779,30 +1785,30 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1826,32 +1832,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>656</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2014,34 +2020,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1494</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2667</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1494</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2065,34 +2071,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>798</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2116,25 +2122,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2292</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>2667</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2292</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
@@ -2169,34 +2175,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2149</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2667</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2149</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2205,10 +2211,10 @@
         <v>4816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -2220,34 +2226,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>798</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2256,13 +2262,13 @@
         <v>798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2667</v>
+        <v>2947</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
@@ -2289,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2947</v>
+        <v>2667</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
@@ -2338,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C8CF1-B7C9-40B9-A5A3-AEC4474A7DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7226F68-27B5-4A8D-B9F6-EC2136C8E9C2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2456,32 +2462,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>646</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2507,30 +2513,30 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2554,32 +2560,32 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>646</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2882,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1214</v>
+        <v>1141</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -2897,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1141</v>
+        <v>1214</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -2984,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1214</v>
+        <v>1141</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -2999,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1141</v>
+        <v>1214</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
@@ -3034,31 +3040,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1859</v>
+        <v>1141</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1141</v>
+        <v>1859</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3097,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3112,7 +3118,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3136,25 +3142,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1141</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1859</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1141</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
